--- a/Healthcare/Progyny.xlsx
+++ b/Healthcare/Progyny.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93551BAE-E30D-A64F-99F5-20E4DA6C1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEAA5B0-CF37-3D43-A39B-4093A0BAD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1018,6 +1018,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,12 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2245,11 +2245,11 @@
     <v>Powered by Refinitiv</v>
     <v>46.5</v>
     <v>25.67</v>
-    <v>1.5109999999999999</v>
-    <v>0.4</v>
-    <v>1.1682E-2</v>
-    <v>0.35</v>
-    <v>1.0104E-2</v>
+    <v>1.4971000000000001</v>
+    <v>-1.06</v>
+    <v>-2.8237000000000002E-2</v>
+    <v>0.37</v>
+    <v>1.0142999999999999E-2</v>
     <v>USD</v>
     <v>Progyny, Inc. is a fertility benefits management company. The Company specializes in fertility and family-building benefits solutions in the United States. The Company provides its benefit through its Smart Cycle approach. The Smart Cycles include medical services required for a member’s full course of treatment, including all necessary diagnostic testing and access to the technology. In addition, to its fertility benefits solution, it offers an integrated pharmacy benefits solution, Progyny Rx, which is added by its clients. Progyny Rx provides its members with access to the medications needed during their fertility treatment. As part of this solution, the Company provides care management services, which include its formulary plan design, simplified authorization, assistance with prescription fulfillment and timely delivery of the medications by its network of specialty pharmacies, as well as medication administration training, pharmacy support services and patient care advocates.</v>
     <v>393</v>
@@ -2257,25 +2257,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1359 Broadway, NEW YORK, NY, 10018 US</v>
-    <v>35.090000000000003</v>
+    <v>37.448700000000002</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45037.908766770313</v>
+    <v>45057.98174091406</v>
     <v>0</v>
-    <v>34.04</v>
-    <v>3267179000</v>
+    <v>36.03</v>
+    <v>3440723923</v>
     <v>PROGYNY, INC.</v>
     <v>PROGYNY, INC.</v>
-    <v>34.57</v>
-    <v>112.60939999999999</v>
-    <v>34.24</v>
-    <v>34.64</v>
-    <v>34.99</v>
+    <v>37.299999999999997</v>
+    <v>87.138199999999998</v>
+    <v>37.54</v>
+    <v>36.479999999999997</v>
+    <v>36.85</v>
     <v>94318090</v>
     <v>PGNY</v>
     <v>PROGYNY, INC. (XNAS:PGNY)</v>
-    <v>808505</v>
-    <v>783562</v>
+    <v>943137</v>
+    <v>802124</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2863,10 +2863,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3460,15 +3460,15 @@
       </c>
       <c r="N16" s="32">
         <f>O101/G3</f>
-        <v>4.1518935384216551</v>
+        <v>4.3724324328102346</v>
       </c>
       <c r="O16" s="32">
         <f>O101/G28</f>
-        <v>107.6216812701759</v>
+        <v>113.33829379405758</v>
       </c>
       <c r="P16" s="33">
         <f>O101/G106</f>
-        <v>42.346203696503096</v>
+        <v>44.59553520232263</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19">
@@ -5041,10 +5041,10 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="61" t="s">
+      <c r="N83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="O83" s="62"/>
+      <c r="O83" s="64"/>
     </row>
     <row r="84" spans="1:15" ht="19">
       <c r="A84" s="5" t="s">
@@ -5068,10 +5068,10 @@
       <c r="G84" s="1">
         <v>47689000</v>
       </c>
-      <c r="N84" s="63" t="s">
+      <c r="N84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="O84" s="64"/>
+      <c r="O84" s="66"/>
     </row>
     <row r="85" spans="1:15" ht="20">
       <c r="A85" s="5" t="s">
@@ -5341,10 +5341,10 @@
       <c r="G93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N93" s="63" t="s">
+      <c r="N93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="O93" s="64"/>
+      <c r="O93" s="66"/>
     </row>
     <row r="94" spans="1:15" ht="20">
       <c r="A94" s="6" t="s">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="O95" s="40" cm="1">
         <f t="array" ref="O95">_FV(A1,"Beta")</f>
-        <v>1.5109999999999999</v>
+        <v>1.4971000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="O97" s="38">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>0.10599855</v>
+        <v>0.10540015500000001</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19">
@@ -5486,10 +5486,10 @@
       <c r="G98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N98" s="63" t="s">
+      <c r="N98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="O98" s="64"/>
+      <c r="O98" s="66"/>
     </row>
     <row r="99" spans="1:16" ht="20">
       <c r="A99" s="5" t="s">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="O100" s="36">
         <f>O99/O103</f>
-        <v>1.9800461929320111E-3</v>
+        <v>1.8803634435505118E-3</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="O101" s="41" cm="1">
         <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3267179000</v>
+        <v>3440723923</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="O102" s="36">
         <f>O101/O103</f>
-        <v>0.99801995380706798</v>
+        <v>0.99811963655644953</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="20">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="O103" s="42">
         <f>O99+O101</f>
-        <v>3273661000</v>
+        <v>3447205923</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" thickBot="1">
@@ -5663,10 +5663,10 @@
       <c r="G104" s="11">
         <v>120078000</v>
       </c>
-      <c r="N104" s="63" t="s">
+      <c r="N104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="O104" s="64"/>
+      <c r="O104" s="66"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O105" s="27">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>0.10578866797461618</v>
+        <v>0.10520196440159346</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5775,7 +5775,7 @@
       <c r="K107" s="44"/>
       <c r="L107" s="47">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>3104607226.5068436</v>
+        <v>3127318442.6997914</v>
       </c>
       <c r="M107" s="48" t="s">
         <v>148</v>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="L108" s="47">
         <f>L107+L106</f>
-        <v>3349306819.1057267</v>
+        <v>3372018035.2986746</v>
       </c>
       <c r="M108" s="48" t="s">
         <v>144</v>
@@ -5816,14 +5816,14 @@
       </c>
       <c r="O108" s="52">
         <f>O105</f>
-        <v>0.10578866797461618</v>
+        <v>0.10520196440159346</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19">
-      <c r="H109" s="65" t="s">
+      <c r="H109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="I109" s="66"/>
+      <c r="I109" s="62"/>
     </row>
     <row r="110" spans="1:16" ht="20">
       <c r="H110" s="53" t="s">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="I110" s="41">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>2457777512.9146171</v>
+        <v>2477544177.9578638</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="I113" s="41">
         <f>I110+I111-I112</f>
-        <v>2571373512.9146171</v>
+        <v>2591140177.9578638</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="I115" s="56">
         <f>I113/I114</f>
-        <v>27.262781857802857</v>
+        <v>27.472356341798946</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="I116" s="57" cm="1">
         <f t="array" ref="I116">_FV(A1,"Price")</f>
-        <v>34.64</v>
+        <v>36.479999999999997</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="I117" s="59">
         <f>I115/I116-1</f>
-        <v>-0.21296819117197296</v>
+        <v>-0.24692005641998493</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20">
